--- a/I1/DevilerablesAndRoles.xlsx
+++ b/I1/DevilerablesAndRoles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
   <si>
     <t> Наименование</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>SA Manager</t>
+  </si>
+  <si>
+    <t>Pesho was here</t>
   </si>
 </sst>
 </file>
@@ -519,17 +522,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -542,9 +545,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,7 +585,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -654,7 +657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1323,10 +1326,10 @@
       <c r="L16" s="22">
         <v>3.4</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -1529,10 +1532,10 @@
       <c r="L22" s="22">
         <v>2.4</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="24"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -1819,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G10"/>
+  <dimension ref="C2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1875,7 @@
       <c r="C4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -1886,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1955,6 +1958,11 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
